--- a/content/drafts/entitats/Codis_Organitzacio_SecretariesSectorials.xlsx
+++ b/content/drafts/entitats/Codis_Organitzacio_SecretariesSectorials.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\08.Proposta_noves_ER_Desembre19\____NovesERs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\06.OIAD_Paquet_03\03.Secretaries_sectorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26D07A-1CCA-44AD-9F9B-0B962A20663F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417296FD-26B4-44E7-B5E0-A8CCF91C1006}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SecretariesSectorials" sheetId="1" r:id="rId1"/>
+    <sheet name="Secretaries_Sectorials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Codi</t>
   </si>
@@ -150,7 +150,13 @@
     <t>Secretaria de Polítiques Digitals</t>
   </si>
   <si>
-    <t>Codis_Organitzacio_SecretariesSectorials</t>
+    <t>Secretaries_Sectorials</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
 </sst>
 </file>
@@ -657,15 +663,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="74.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -673,7 +679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,9 +690,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>1</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -695,9 +701,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>2</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -706,9 +712,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>3</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -717,9 +723,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>4</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -728,9 +734,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>5</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -739,8 +745,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -750,9 +756,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>7</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -761,9 +767,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>8</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>18</v>
@@ -772,8 +778,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -783,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -794,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -805,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -816,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -827,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -838,7 +844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -849,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -860,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -871,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -882,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -893,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -904,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -915,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -926,7 +932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -937,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -948,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -959,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -970,7 +976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -981,7 +987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -996,7 +1002,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C32:C894 C4:C24" numberStoredAsText="1"/>
+    <ignoredError sqref="C32:C894 C4:C24 A4:A12" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1014,15 +1020,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1154,6 +1151,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
@@ -1171,14 +1177,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1194,4 +1192,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>